--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cntn2</t>
+  </si>
+  <si>
+    <t>Cntnap2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
-    <t>Cntn2</t>
-  </si>
-  <si>
-    <t>Cntnap2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +534,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H2">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I2">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J2">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.05016200000000001</v>
+        <v>0.008694500000000001</v>
       </c>
       <c r="N2">
-        <v>0.150486</v>
+        <v>0.017389</v>
       </c>
       <c r="O2">
-        <v>0.4101173508042319</v>
+        <v>0.08079651952501242</v>
       </c>
       <c r="P2">
-        <v>0.5099405296419919</v>
+        <v>0.06449208174164597</v>
       </c>
       <c r="Q2">
-        <v>0.009299106803000001</v>
+        <v>0.00060912362825</v>
       </c>
       <c r="R2">
-        <v>0.05579464081800001</v>
+        <v>0.002436494513</v>
       </c>
       <c r="S2">
-        <v>0.2632267244677769</v>
+        <v>0.03664300371346504</v>
       </c>
       <c r="T2">
-        <v>0.3110658708920209</v>
+        <v>0.02823339545898673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +596,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,46 +605,46 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H3">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I3">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J3">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0001473333333333333</v>
+        <v>0.05016200000000001</v>
       </c>
       <c r="N3">
-        <v>0.000442</v>
+        <v>0.150486</v>
       </c>
       <c r="O3">
-        <v>0.001204576299825037</v>
+        <v>0.4661469909038671</v>
       </c>
       <c r="P3">
-        <v>0.001497771979464936</v>
+        <v>0.5581203871972704</v>
       </c>
       <c r="Q3">
-        <v>2.731287433333333E-05</v>
+        <v>0.003514274477</v>
       </c>
       <c r="R3">
-        <v>0.000163877246</v>
+        <v>0.021085646862</v>
       </c>
       <c r="S3">
-        <v>0.0007731364526584359</v>
+        <v>0.2114079420639293</v>
       </c>
       <c r="T3">
-        <v>0.0009136472159155882</v>
+        <v>0.2443343923768518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H4">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I4">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J4">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07182899999999999</v>
+        <v>0.0013</v>
       </c>
       <c r="N4">
-        <v>0.143658</v>
+        <v>0.0039</v>
       </c>
       <c r="O4">
-        <v>0.5872636495936598</v>
+        <v>0.01208068035913694</v>
       </c>
       <c r="P4">
-        <v>0.4868030023212076</v>
+        <v>0.01446426584578868</v>
       </c>
       <c r="Q4">
-        <v>0.0133157677635</v>
+        <v>9.107605000000001E-05</v>
       </c>
       <c r="R4">
-        <v>0.05326307105399999</v>
+        <v>0.0005464563</v>
       </c>
       <c r="S4">
-        <v>0.3769250108009239</v>
+        <v>0.00547885500345098</v>
       </c>
       <c r="T4">
-        <v>0.2969518817737591</v>
+        <v>0.006332177945255519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,51 +729,51 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1853815</v>
+        <v>0.0700585</v>
       </c>
       <c r="H5">
-        <v>0.370763</v>
+        <v>0.140117</v>
       </c>
       <c r="I5">
-        <v>0.6418326948411097</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J5">
-        <v>0.6100042118840943</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.000173</v>
+        <v>0.044505</v>
       </c>
       <c r="N5">
-        <v>0.000519</v>
+        <v>0.08901000000000001</v>
       </c>
       <c r="O5">
-        <v>0.001414423302283245</v>
+        <v>0.4135774456795304</v>
       </c>
       <c r="P5">
-        <v>0.001758696057335525</v>
+        <v>0.3301190520342692</v>
       </c>
       <c r="Q5">
-        <v>3.20709995E-05</v>
+        <v>0.0031179535425</v>
       </c>
       <c r="R5">
-        <v>0.000192425997</v>
+        <v>0.01247181417</v>
       </c>
       <c r="S5">
-        <v>0.0009078231197505165</v>
+        <v>0.1875664937912199</v>
       </c>
       <c r="T5">
-        <v>0.001072812002398621</v>
+        <v>0.1445197843351779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,51 +791,51 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.073309</v>
+        <v>0.0700585</v>
       </c>
       <c r="H6">
-        <v>0.146618</v>
+        <v>0.140117</v>
       </c>
       <c r="I6">
-        <v>0.2538123438752352</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J6">
-        <v>0.2412257898927944</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05016200000000001</v>
+        <v>0.002840666666666667</v>
       </c>
       <c r="N6">
-        <v>0.150486</v>
+        <v>0.008522</v>
       </c>
       <c r="O6">
-        <v>0.4101173508042319</v>
+        <v>0.02639783538988846</v>
       </c>
       <c r="P6">
-        <v>0.5099405296419919</v>
+        <v>0.0316062752661054</v>
       </c>
       <c r="Q6">
-        <v>0.003677326058</v>
+        <v>0.0001990128456666667</v>
       </c>
       <c r="R6">
-        <v>0.022063956348</v>
+        <v>0.001194077074</v>
       </c>
       <c r="S6">
-        <v>0.1040928460715242</v>
+        <v>0.01197200059984852</v>
       </c>
       <c r="T6">
-        <v>0.1230108070612394</v>
+        <v>0.0138366206280686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.073309</v>
+        <v>0.0700585</v>
       </c>
       <c r="H7">
-        <v>0.146618</v>
+        <v>0.140117</v>
       </c>
       <c r="I7">
-        <v>0.2538123438752352</v>
+        <v>0.4535220567529688</v>
       </c>
       <c r="J7">
-        <v>0.2412257898927944</v>
+        <v>0.4377808049690373</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.0001473333333333333</v>
+        <v>0.0001076666666666667</v>
       </c>
       <c r="N7">
-        <v>0.000442</v>
+        <v>0.000323</v>
       </c>
       <c r="O7">
-        <v>0.001204576299825037</v>
+        <v>0.001000528142564418</v>
       </c>
       <c r="P7">
-        <v>0.001497771979464936</v>
+        <v>0.001197937914920447</v>
       </c>
       <c r="Q7">
-        <v>1.080085933333333E-05</v>
+        <v>7.542965166666666E-06</v>
       </c>
       <c r="R7">
-        <v>6.4805156E-05</v>
+        <v>4.525779099999999E-05</v>
       </c>
       <c r="S7">
-        <v>0.0003057363340351506</v>
+        <v>0.0004537615810550427</v>
       </c>
       <c r="T7">
-        <v>0.0003613012288257235</v>
+        <v>0.0005244342246968031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.011109</v>
+      </c>
+      <c r="H8">
+        <v>0.033327</v>
+      </c>
+      <c r="I8">
+        <v>0.07191385097409637</v>
+      </c>
+      <c r="J8">
+        <v>0.1041267004517875</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.5</v>
       </c>
-      <c r="G8">
-        <v>0.073309</v>
-      </c>
-      <c r="H8">
-        <v>0.146618</v>
-      </c>
-      <c r="I8">
-        <v>0.2538123438752352</v>
-      </c>
-      <c r="J8">
-        <v>0.2412257898927944</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>0.07182899999999999</v>
+        <v>0.008694500000000001</v>
       </c>
       <c r="N8">
-        <v>0.143658</v>
+        <v>0.017389</v>
       </c>
       <c r="O8">
-        <v>0.5872636495936598</v>
+        <v>0.08079651952501242</v>
       </c>
       <c r="P8">
-        <v>0.4868030023212076</v>
+        <v>0.06449208174164597</v>
       </c>
       <c r="Q8">
-        <v>0.005265712160999999</v>
+        <v>9.658720050000001E-05</v>
       </c>
       <c r="R8">
-        <v>0.021062848644</v>
+        <v>0.0005795232030000001</v>
       </c>
       <c r="S8">
-        <v>0.1490547633760916</v>
+        <v>0.005810388864347411</v>
       </c>
       <c r="T8">
-        <v>0.1174294387571171</v>
+        <v>0.006715347677024563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +968,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.073309</v>
+        <v>0.011109</v>
       </c>
       <c r="H9">
-        <v>0.146618</v>
+        <v>0.033327</v>
       </c>
       <c r="I9">
-        <v>0.2538123438752352</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J9">
-        <v>0.2412257898927944</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.000173</v>
+        <v>0.05016200000000001</v>
       </c>
       <c r="N9">
-        <v>0.000519</v>
+        <v>0.150486</v>
       </c>
       <c r="O9">
-        <v>0.001414423302283245</v>
+        <v>0.4661469909038671</v>
       </c>
       <c r="P9">
-        <v>0.001758696057335525</v>
+        <v>0.5581203871972704</v>
       </c>
       <c r="Q9">
-        <v>1.2682457E-05</v>
+        <v>0.0005572496580000001</v>
       </c>
       <c r="R9">
-        <v>7.609474200000001E-05</v>
+        <v>0.005015246922000001</v>
       </c>
       <c r="S9">
-        <v>0.0003589980935842606</v>
+        <v>0.03352242523588416</v>
       </c>
       <c r="T9">
-        <v>0.0004242428456121052</v>
+        <v>0.05811523437372582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,60 +1039,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.030141</v>
+        <v>0.011109</v>
       </c>
       <c r="H10">
-        <v>0.090423</v>
+        <v>0.033327</v>
       </c>
       <c r="I10">
-        <v>0.104354961283655</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J10">
-        <v>0.1487699982231114</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05016200000000001</v>
+        <v>0.0013</v>
       </c>
       <c r="N10">
-        <v>0.150486</v>
+        <v>0.0039</v>
       </c>
       <c r="O10">
-        <v>0.4101173508042319</v>
+        <v>0.01208068035913694</v>
       </c>
       <c r="P10">
-        <v>0.5099405296419919</v>
+        <v>0.01446426584578868</v>
       </c>
       <c r="Q10">
-        <v>0.001511932842</v>
+        <v>1.44417E-05</v>
       </c>
       <c r="R10">
-        <v>0.013607395578</v>
+        <v>0.0001299753</v>
       </c>
       <c r="S10">
-        <v>0.04279778026493077</v>
+        <v>0.0008687682470126672</v>
       </c>
       <c r="T10">
-        <v>0.07586385168873162</v>
+        <v>0.001506116276979458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,51 +1101,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.030141</v>
+        <v>0.011109</v>
       </c>
       <c r="H11">
-        <v>0.090423</v>
+        <v>0.033327</v>
       </c>
       <c r="I11">
-        <v>0.104354961283655</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J11">
-        <v>0.1487699982231114</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0001473333333333333</v>
+        <v>0.044505</v>
       </c>
       <c r="N11">
-        <v>0.000442</v>
+        <v>0.08901000000000001</v>
       </c>
       <c r="O11">
-        <v>0.001204576299825037</v>
+        <v>0.4135774456795304</v>
       </c>
       <c r="P11">
-        <v>0.001497771979464936</v>
+        <v>0.3301190520342692</v>
       </c>
       <c r="Q11">
-        <v>4.440774E-06</v>
+        <v>0.0004944060450000001</v>
       </c>
       <c r="R11">
-        <v>3.996696600000001E-05</v>
+        <v>0.00296643627</v>
       </c>
       <c r="S11">
-        <v>0.0001257035131314501</v>
+        <v>0.02974194679484519</v>
       </c>
       <c r="T11">
-        <v>0.0002228235347236246</v>
+        <v>0.0343742076446004</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1151,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,51 +1163,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.030141</v>
+        <v>0.011109</v>
       </c>
       <c r="H12">
-        <v>0.090423</v>
+        <v>0.033327</v>
       </c>
       <c r="I12">
-        <v>0.104354961283655</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J12">
-        <v>0.1487699982231114</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.07182899999999999</v>
+        <v>0.002840666666666667</v>
       </c>
       <c r="N12">
-        <v>0.143658</v>
+        <v>0.008522</v>
       </c>
       <c r="O12">
-        <v>0.5872636495936598</v>
+        <v>0.02639783538988846</v>
       </c>
       <c r="P12">
-        <v>0.4868030023212076</v>
+        <v>0.0316062752661054</v>
       </c>
       <c r="Q12">
-        <v>0.002164997889</v>
+        <v>3.1556966E-05</v>
       </c>
       <c r="R12">
-        <v>0.012989987334</v>
+        <v>0.000284012694</v>
       </c>
       <c r="S12">
-        <v>0.06128387541664431</v>
+        <v>0.001898370000267166</v>
       </c>
       <c r="T12">
-        <v>0.07242168179033136</v>
+        <v>0.003291057157030497</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1213,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.030141</v>
+        <v>0.011109</v>
       </c>
       <c r="H13">
-        <v>0.090423</v>
+        <v>0.033327</v>
       </c>
       <c r="I13">
-        <v>0.104354961283655</v>
+        <v>0.07191385097409637</v>
       </c>
       <c r="J13">
-        <v>0.1487699982231114</v>
+        <v>0.1041267004517875</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1243,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.000173</v>
+        <v>0.0001076666666666667</v>
       </c>
       <c r="N13">
-        <v>0.000519</v>
+        <v>0.000323</v>
       </c>
       <c r="O13">
-        <v>0.001414423302283245</v>
+        <v>0.001000528142564418</v>
       </c>
       <c r="P13">
-        <v>0.001758696057335525</v>
+        <v>0.001197937914920447</v>
       </c>
       <c r="Q13">
-        <v>5.214393E-06</v>
+        <v>1.196069E-06</v>
       </c>
       <c r="R13">
-        <v>4.692953700000001E-05</v>
+        <v>1.0764621E-05</v>
       </c>
       <c r="S13">
-        <v>0.0001476020889484674</v>
+        <v>7.195183173976704E-05</v>
       </c>
       <c r="T13">
-        <v>0.000261641209324799</v>
+        <v>0.0001247373224267602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.073309</v>
+      </c>
+      <c r="H14">
+        <v>0.146618</v>
+      </c>
+      <c r="I14">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J14">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.008694500000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.017389</v>
+      </c>
+      <c r="O14">
+        <v>0.08079651952501242</v>
+      </c>
+      <c r="P14">
+        <v>0.06449208174164597</v>
+      </c>
+      <c r="Q14">
+        <v>0.0006373851005</v>
+      </c>
+      <c r="R14">
+        <v>0.002549540402</v>
+      </c>
+      <c r="S14">
+        <v>0.03834312694719996</v>
+      </c>
+      <c r="T14">
+        <v>0.02954333860563469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.073309</v>
+      </c>
+      <c r="H15">
+        <v>0.146618</v>
+      </c>
+      <c r="I15">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J15">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.05016200000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.150486</v>
+      </c>
+      <c r="O15">
+        <v>0.4661469909038671</v>
+      </c>
+      <c r="P15">
+        <v>0.5581203871972704</v>
+      </c>
+      <c r="Q15">
+        <v>0.003677326058</v>
+      </c>
+      <c r="R15">
+        <v>0.022063956348</v>
+      </c>
+      <c r="S15">
+        <v>0.2212166236040536</v>
+      </c>
+      <c r="T15">
+        <v>0.2556707604466928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.073309</v>
+      </c>
+      <c r="H16">
+        <v>0.146618</v>
+      </c>
+      <c r="I16">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J16">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.0013</v>
+      </c>
+      <c r="N16">
+        <v>0.0039</v>
+      </c>
+      <c r="O16">
+        <v>0.01208068035913694</v>
+      </c>
+      <c r="P16">
+        <v>0.01446426584578868</v>
+      </c>
+      <c r="Q16">
+        <v>9.530170000000001E-05</v>
+      </c>
+      <c r="R16">
+        <v>0.0005718102</v>
+      </c>
+      <c r="S16">
+        <v>0.005733057108673293</v>
+      </c>
+      <c r="T16">
+        <v>0.0066259716235537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.073309</v>
+      </c>
+      <c r="H17">
+        <v>0.146618</v>
+      </c>
+      <c r="I17">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J17">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.044505</v>
+      </c>
+      <c r="N17">
+        <v>0.08901000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.4135774456795304</v>
+      </c>
+      <c r="P17">
+        <v>0.3301190520342692</v>
+      </c>
+      <c r="Q17">
+        <v>0.003262617045</v>
+      </c>
+      <c r="R17">
+        <v>0.01305046818</v>
+      </c>
+      <c r="S17">
+        <v>0.1962690050934653</v>
+      </c>
+      <c r="T17">
+        <v>0.151225060054491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.073309</v>
+      </c>
+      <c r="H18">
+        <v>0.146618</v>
+      </c>
+      <c r="I18">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J18">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.002840666666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.008522</v>
+      </c>
+      <c r="O18">
+        <v>0.02639783538988846</v>
+      </c>
+      <c r="P18">
+        <v>0.0316062752661054</v>
+      </c>
+      <c r="Q18">
+        <v>0.0002082464326666667</v>
+      </c>
+      <c r="R18">
+        <v>0.001249478596</v>
+      </c>
+      <c r="S18">
+        <v>0.01252746478977277</v>
+      </c>
+      <c r="T18">
+        <v>0.01447859748100631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.073309</v>
+      </c>
+      <c r="H19">
+        <v>0.146618</v>
+      </c>
+      <c r="I19">
+        <v>0.4745640922729347</v>
+      </c>
+      <c r="J19">
+        <v>0.4580924945791753</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.0001076666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.000323</v>
+      </c>
+      <c r="O19">
+        <v>0.001000528142564418</v>
+      </c>
+      <c r="P19">
+        <v>0.001197937914920447</v>
+      </c>
+      <c r="Q19">
+        <v>7.892935666666666E-06</v>
+      </c>
+      <c r="R19">
+        <v>4.7357614E-05</v>
+      </c>
+      <c r="S19">
+        <v>0.0004748147297696086</v>
+      </c>
+      <c r="T19">
+        <v>0.0005487663677968832</v>
       </c>
     </row>
   </sheetData>
